--- a/biology/Botanique/Saxifrage_à_nombreuses_fleurs/Saxifrage_à_nombreuses_fleurs.xlsx
+++ b/biology/Botanique/Saxifrage_à_nombreuses_fleurs/Saxifrage_à_nombreuses_fleurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saxifrage_%C3%A0_nombreuses_fleurs</t>
+          <t>Saxifrage_à_nombreuses_fleurs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saxifraga florulenta
 La Saxifrage à nombreuses fleurs (Saxifraga florulenta) est une espèce de  plante herbacée vivace monocarpique du genre Saxifraga et de la famille des Saxifragacées, endémique du Parc National du Mercantour.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Saxifrage_%C3%A0_nombreuses_fleurs</t>
+          <t>Saxifrage_à_nombreuses_fleurs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Feuilles : coriaces disposées en spirale et formant une rosette dense. Cette rosette vivace s'agrandit au fil des ans.
 Fleurs : roses blanchâtres en clochette le long d'une hampe florale de 10 à 40 cm portant jusqu'à 300 fleurs. 5 sépales et 5 pétales.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Saxifrage_%C3%A0_nombreuses_fleurs</t>
+          <t>Saxifrage_à_nombreuses_fleurs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Type d'inflorescence : racème simple
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Saxifrage_%C3%A0_nombreuses_fleurs</t>
+          <t>Saxifrage_à_nombreuses_fleurs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Observations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Longtemps représentée comme l'emblème du Parc national du Mercantour, elle est souvent citée comme l'une des plantes endémiques les plus célèbres des Alpes.
 Elle a fait l'objet de nombreux prélèvements par les collectionneurs, mais son inaccessibilité la rend peu menacée. Cependant, Gaston Bonnier indique dans la grande flore de France que cette espèce a donné lieu à un sport spécial qui consiste à la recueillir à coup de fusil.
